--- a/ABMdev/Data/NASS_Data/ID_Yield_Area_Prices_1975-2015.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_Yield_Area_Prices_1975-2015.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrakaiser/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kek25/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CE1E82-A4E8-BC49-86AF-17EF24F345D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22480" yWindow="11240" windowWidth="26040" windowHeight="14940" activeTab="1"/>
+    <workbookView xWindow="2940" yWindow="460" windowWidth="23440" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="MetaData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="62">
   <si>
     <t>Crop</t>
   </si>
@@ -196,22 +203,50 @@
   </si>
   <si>
     <t>Price Received for Dry beans in 2010 is excluding chickpeas, even though they are included in the acreage</t>
+  </si>
+  <si>
+    <t>$ / LB</t>
+  </si>
+  <si>
+    <t>State, Weighted Avg</t>
+  </si>
+  <si>
+    <t>$ / TON</t>
+  </si>
+  <si>
+    <t>TONS / ACRE</t>
+  </si>
+  <si>
+    <t>Naitonal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,11 +275,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,11 +595,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,11 +734,17 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -968,8 +1011,17 @@
       <c r="G12" t="s">
         <v>38</v>
       </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
       <c r="I12">
         <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1204,6 +1256,9 @@
       <c r="G19" t="s">
         <v>37</v>
       </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
       <c r="I19" t="s">
         <v>43</v>
       </c>
@@ -1271,8 +1326,17 @@
       <c r="G21" t="s">
         <v>38</v>
       </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
       <c r="I21">
         <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1481,6 +1545,9 @@
       <c r="J27" t="s">
         <v>55</v>
       </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1513,6 +1580,9 @@
       <c r="J28" t="s">
         <v>28</v>
       </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1545,6 +1615,9 @@
       <c r="J29" t="s">
         <v>27</v>
       </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1577,6 +1650,9 @@
       <c r="J30" t="s">
         <v>26</v>
       </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1609,6 +1685,9 @@
       <c r="J31" t="s">
         <v>27</v>
       </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1641,8 +1720,11 @@
       <c r="J32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1673,8 +1755,11 @@
       <c r="J33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1705,8 +1790,11 @@
       <c r="J34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1723,8 +1811,27 @@
       <c r="E35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F35" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="4">
+        <v>542</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1741,8 +1848,35 @@
       <c r="E36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>2129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <v>3.89</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1759,8 +1893,26 @@
       <c r="E37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>101</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1777,8 +1929,26 @@
       <c r="E38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>760</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1795,8 +1965,26 @@
       <c r="E39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>1600</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39">
+        <v>11.1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1813,8 +2001,26 @@
       <c r="E40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1830,6 +2036,24 @@
       </c>
       <c r="E41" t="s">
         <v>54</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9.2430712871287142</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="1">
+        <v>713.45966996699667</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1838,10 +2062,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/ABMdev/Data/NASS_Data/ID_Yield_Area_Prices_1975-2015.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_Yield_Area_Prices_1975-2015.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kek25/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrakaiser/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CE1E82-A4E8-BC49-86AF-17EF24F345D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="23440" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="460" windowWidth="23440" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="MetaData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="62">
   <si>
     <t>Crop</t>
   </si>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -595,15 +594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -2056,13 +2056,133 @@
         <v>58</v>
       </c>
     </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <v>2015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ABMdev/Data/NASS_Data/ID_Yield_Area_Prices_1975-2015.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_Yield_Area_Prices_1975-2015.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrakaiser/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kek25/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECAC274-42E9-F642-83D5-5372087A0E15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="460" windowWidth="23440" windowHeight="17540"/>
+    <workbookView xWindow="16160" yWindow="1640" windowWidth="26860" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="MetaData" sheetId="2" r:id="rId2"/>
+    <sheet name="GCAM Cat" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="MetaData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="75">
   <si>
     <t>Crop</t>
   </si>
@@ -216,13 +218,52 @@
     <t>TONS / ACRE</t>
   </si>
   <si>
-    <t>Naitonal</t>
+    <t xml:space="preserve">VEGETABLE TOTALS, 34 MAJOR, VARIES BY SEASON, FRESH MARKET </t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Root_Tuber</t>
+  </si>
+  <si>
+    <t>OilCrop</t>
+  </si>
+  <si>
+    <t>SugarCrop</t>
+  </si>
+  <si>
+    <t>OtherGrain</t>
+  </si>
+  <si>
+    <t>FodderGrass</t>
+  </si>
+  <si>
+    <t>FodderHerb</t>
+  </si>
+  <si>
+    <t>MiscCrop</t>
+  </si>
+  <si>
+    <t>sugarbeets</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>barley/oats</t>
+  </si>
+  <si>
+    <t>alfalfa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -274,13 +315,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,11 +636,2202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B28AD5C-A035-1949-8D74-650853F36A88}">
+  <dimension ref="A2:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>1975</v>
+      </c>
+      <c r="C12">
+        <f>C35+C36</f>
+        <v>121300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <f>((C35/C12)*F35)+((C36/C12)*F36)</f>
+        <v>36.421104699093164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>1975</v>
+      </c>
+      <c r="C34">
+        <v>697000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3">
+        <v>50.490100430416064</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>1975</v>
+      </c>
+      <c r="C35">
+        <v>33000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3">
+        <v>83.00454545454545</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>2.8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1975</v>
+      </c>
+      <c r="C36">
+        <v>88300</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="3">
+        <v>19.011664779161951</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>1975</v>
+      </c>
+      <c r="C37">
+        <v>53900</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="3">
+        <v>60.484230055658628</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>1.56</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>1975</v>
+      </c>
+      <c r="C38">
+        <v>94539</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="3">
+        <v>19.724470324416377</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <v>27.6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>1975</v>
+      </c>
+      <c r="C39">
+        <v>864660</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3">
+        <v>41.49810330071935</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <v>3.4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>1975</v>
+      </c>
+      <c r="C40">
+        <v>321500</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="3">
+        <v>243.97356143079318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>3.75</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>1990</v>
+      </c>
+      <c r="C41">
+        <v>643000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="3">
+        <v>74.752255054432339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <v>2.62</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>1990</v>
+      </c>
+      <c r="C42">
+        <v>177600</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2004.1779279279281</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>1990</v>
+      </c>
+      <c r="C43">
+        <v>30000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="3">
+        <v>130.00466666666668</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43">
+        <v>2.7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>1990</v>
+      </c>
+      <c r="C44">
+        <v>67700</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="3">
+        <v>23.036927621861153</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>1990</v>
+      </c>
+      <c r="C45">
+        <v>892000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4.01640134529148</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45">
+        <v>84</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>1990</v>
+      </c>
+      <c r="C46">
+        <v>18000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="3">
+        <v>66.283333333333331</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46">
+        <v>1.47</v>
+      </c>
+      <c r="J46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>1990</v>
+      </c>
+      <c r="C47">
+        <v>186000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3">
+        <v>25.976881720430107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>41.7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>1990</v>
+      </c>
+      <c r="C48">
+        <v>965000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3">
+        <v>71.316165803108817</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>1990</v>
+      </c>
+      <c r="C49">
+        <v>402600</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3">
+        <v>295.35717834078491</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>2005</v>
+      </c>
+      <c r="C50">
+        <v>546000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="3">
+        <v>89.601831501831498</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50">
+        <v>3.01</v>
+      </c>
+      <c r="J50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <v>2005</v>
+      </c>
+      <c r="C51">
+        <v>67700</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2270.1329394386999</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>2005</v>
+      </c>
+      <c r="C52">
+        <v>59900</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="3">
+        <v>170.13923205342238</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52">
+        <v>2.68</v>
+      </c>
+      <c r="J52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>2005</v>
+      </c>
+      <c r="C53">
+        <v>169700</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="3">
+        <v>26.488568061284617</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>2005</v>
+      </c>
+      <c r="C54">
+        <v>1037000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4.3258052073288331</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54">
+        <v>112</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>2005</v>
+      </c>
+      <c r="C55">
+        <v>14000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="3">
+        <v>69.98571428571428</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55">
+        <v>1.3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>2005</v>
+      </c>
+      <c r="C56">
+        <v>167000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="3">
+        <v>27.125748502994014</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>44.4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>2005</v>
+      </c>
+      <c r="C57">
+        <v>780000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="3">
+        <v>88.850384615384613</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57">
+        <v>3.31</v>
+      </c>
+      <c r="J57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>2005</v>
+      </c>
+      <c r="C58">
+        <v>322800</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="3">
+        <v>366.1090458488228</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>5.7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>2010</v>
+      </c>
+      <c r="C59">
+        <v>439000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="3">
+        <v>248503.41685649203</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60">
+        <v>2010</v>
+      </c>
+      <c r="C60">
+        <v>81600</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="3">
+        <v>46697.303921568629</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60">
+        <v>27.2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61">
+        <v>2010</v>
+      </c>
+      <c r="C61">
+        <v>1068000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="3">
+        <v>401106.74157303374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61">
+        <v>127</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>2010</v>
+      </c>
+      <c r="C62">
+        <v>9000</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>2010</v>
+      </c>
+      <c r="C63">
+        <v>170000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="3">
+        <v>77569.76470588235</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63">
+        <v>57.3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64">
+        <v>2010</v>
+      </c>
+      <c r="C64">
+        <v>494500</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="3">
+        <v>345302.83114256826</v>
+      </c>
+      <c r="G64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64">
+        <v>6.33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65">
+        <v>2010</v>
+      </c>
+      <c r="C65">
+        <v>374000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="3">
+        <v>165786.09625668448</v>
+      </c>
+      <c r="G65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>5.68</v>
+      </c>
+      <c r="J65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>2010</v>
+      </c>
+      <c r="C66">
+        <v>294000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="3">
+        <v>163761.90476190476</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66">
+        <v>8.1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67">
+        <v>2010</v>
+      </c>
+      <c r="C67" s="6">
+        <f>984*30*30*0.000247105</f>
+        <v>218.83618800000002</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="4">
+        <v>542</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68">
+        <v>2010</v>
+      </c>
+      <c r="C68" s="6">
+        <f>13255*30*30*0.000247105</f>
+        <v>2947.8390975000002</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68">
+        <v>2129</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68">
+        <v>3.89</v>
+      </c>
+      <c r="J68" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69">
+        <v>2010</v>
+      </c>
+      <c r="C69" s="6">
+        <f>1393*30*30*0.000247105</f>
+        <v>309.79553850000002</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69">
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70">
+        <v>2010</v>
+      </c>
+      <c r="C70" s="6">
+        <f>119538*30*30*0.000247105</f>
+        <v>26584.593741000001</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>760</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71">
+        <v>2010</v>
+      </c>
+      <c r="C71" s="6">
+        <f>53371*30*30*0.000247105</f>
+        <v>11869.416859500001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71">
+        <v>1600</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71">
+        <v>11.1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72">
+        <v>2010</v>
+      </c>
+      <c r="C72" s="6">
+        <f>11915*30*30*0.000247105</f>
+        <v>2649.8304674999999</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73">
+        <v>2010</v>
+      </c>
+      <c r="C73" s="6">
+        <f>15166*30*30*0.000247105</f>
+        <v>3372.8349870000002</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="3">
+        <v>9.2430712871287142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="1">
+        <v>713.45966996699667</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74">
+        <v>2010</v>
+      </c>
+      <c r="C74" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D74">
+        <v>9000</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>2015</v>
+      </c>
+      <c r="C75" s="6">
+        <v>537000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="3">
+        <v>100.41080074487897</v>
+      </c>
+      <c r="G75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75">
+        <v>5.86</v>
+      </c>
+      <c r="J75" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76">
+        <v>2015</v>
+      </c>
+      <c r="C76" s="6">
+        <v>32900</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2490</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76">
+        <v>32.1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>2015</v>
+      </c>
+      <c r="C77" s="6">
+        <v>950000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="3">
+        <v>4.3125263157894738</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77">
+        <v>170</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>2015</v>
+      </c>
+      <c r="C78" s="6">
+        <v>172000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="3">
+        <v>38.291279069767441</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78">
+        <v>45.5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79">
+        <v>2015</v>
+      </c>
+      <c r="C79" s="6">
+        <v>310100</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="3">
+        <v>80.557949048693956</v>
+      </c>
+      <c r="G79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79">
+        <v>5.13</v>
+      </c>
+      <c r="J79" t="s">
+        <v>26</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80">
+        <v>2015</v>
+      </c>
+      <c r="C80" s="6">
+        <v>395000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="3">
+        <v>93.622430379746831</v>
+      </c>
+      <c r="G80" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80">
+        <v>4.96</v>
+      </c>
+      <c r="J80" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>2015</v>
+      </c>
+      <c r="C81" s="6">
+        <v>236000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="3">
+        <v>393.72881355932202</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>7</v>
+      </c>
+      <c r="J81" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82">
+        <v>2015</v>
+      </c>
+      <c r="C82" s="6">
+        <v>301.78933649999999</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82">
+        <v>7.44</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82">
+        <v>776</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83">
+        <v>2015</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1530.0741600000001</v>
+      </c>
+      <c r="D83" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83">
+        <v>1794</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83">
+        <v>3.53</v>
+      </c>
+      <c r="J83" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84">
+        <v>2015</v>
+      </c>
+      <c r="C84" s="6">
+        <v>474.14507400000002</v>
+      </c>
+      <c r="D84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="3">
+        <v>107.81081081081082</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84">
+        <v>21.245405405405407</v>
+      </c>
+      <c r="J84" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85">
+        <v>2015</v>
+      </c>
+      <c r="C85" s="6">
+        <v>21250.684053000001</v>
+      </c>
+      <c r="D85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85">
+        <v>720</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85">
+        <v>10.1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86">
+        <v>2015</v>
+      </c>
+      <c r="C86" s="6">
+        <v>11910.3374475</v>
+      </c>
+      <c r="D86" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" t="s">
+        <v>54</v>
+      </c>
+      <c r="F86">
+        <f>1400/100</f>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86">
+        <v>12.8</v>
+      </c>
+      <c r="J86" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87">
+        <v>2015</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2201.0383664999999</v>
+      </c>
+      <c r="D87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88">
+        <v>2015</v>
+      </c>
+      <c r="C88" s="6">
+        <f>8515*30*30*0.000247105</f>
+        <v>1893.6891675000002</v>
+      </c>
+      <c r="D88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88">
+        <v>851.32222488611853</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89">
+        <v>2015</v>
+      </c>
+      <c r="C89" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,7 +4034,7 @@
       <c r="B35">
         <v>2010</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="6">
         <f>984*30*30*0.000247105</f>
         <v>218.83618800000002</v>
       </c>
@@ -1818,7 +4051,7 @@
         <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I35" s="4">
         <v>542</v>
@@ -1838,7 +4071,7 @@
       <c r="B36">
         <v>2010</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6">
         <f>13255*30*30*0.000247105</f>
         <v>2947.8390975000002</v>
       </c>
@@ -1883,7 +4116,7 @@
       <c r="B37">
         <v>2010</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6">
         <f>1393*30*30*0.000247105</f>
         <v>309.79553850000002</v>
       </c>
@@ -1919,7 +4152,7 @@
       <c r="B38">
         <v>2010</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6">
         <f>119538*30*30*0.000247105</f>
         <v>26584.593741000001</v>
       </c>
@@ -1955,7 +4188,7 @@
       <c r="B39">
         <v>2010</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6">
         <f>53371*30*30*0.000247105</f>
         <v>11869.416859500001</v>
       </c>
@@ -1991,7 +4224,7 @@
       <c r="B40">
         <v>2010</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6">
         <f>11915*30*30*0.000247105</f>
         <v>2649.8304674999999</v>
       </c>
@@ -2027,7 +4260,7 @@
       <c r="B41">
         <v>2010</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
         <f>15166*30*30*0.000247105</f>
         <v>3372.8349870000002</v>
       </c>
@@ -2058,34 +4291,142 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B42">
-        <v>2015</v>
+        <v>2010</v>
+      </c>
+      <c r="C42" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D42">
+        <v>9000</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>2015</v>
       </c>
+      <c r="C43" s="6">
+        <v>537000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100.41080074487897</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43">
+        <v>5.86</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>2015</v>
       </c>
+      <c r="C44" s="6">
+        <v>32900</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2490</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44">
+        <v>32.1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>2015</v>
+      </c>
+      <c r="C45" s="6">
+        <v>950000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4.3125263157894738</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45">
+        <v>170</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -2095,6 +4436,33 @@
       <c r="B46">
         <v>2015</v>
       </c>
+      <c r="C46" s="6">
+        <v>172000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="3">
+        <v>38.291279069767441</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46">
+        <v>45.5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2103,6 +4471,33 @@
       <c r="B47">
         <v>2015</v>
       </c>
+      <c r="C47" s="6">
+        <v>310100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3">
+        <v>80.557949048693956</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>5.13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2111,69 +4506,349 @@
       <c r="B48">
         <v>2015</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="6">
+        <v>395000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3">
+        <v>93.622430379746831</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>4.96</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49">
         <v>2015</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="6">
+        <v>236000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3">
+        <v>393.72881355932202</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
       <c r="B50">
         <v>2015</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="6">
+        <v>301.78933649999999</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <v>7.44</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>776</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
       <c r="B51">
         <v>2015</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="6">
+        <v>1530.0741600000001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51">
+        <v>1794</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>3.53</v>
+      </c>
+      <c r="J51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
       <c r="B52">
         <v>2015</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="6">
+        <v>474.14507400000002</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="3">
+        <v>107.81081081081082</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <v>21.245405405405407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
       <c r="B53">
         <v>2015</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="6">
+        <v>21250.684053000001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53">
+        <v>720</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53">
+        <v>10.1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
       <c r="B54">
         <v>2015</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="6">
+        <v>11910.3374475</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54">
+        <f>1400/100</f>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54">
+        <v>12.8</v>
+      </c>
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
       <c r="B55">
         <v>2015</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="6">
+        <v>2201.0383664999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
       <c r="B56">
         <v>2015</v>
+      </c>
+      <c r="C56" s="6">
+        <f>8515*30*30*0.000247105</f>
+        <v>1893.6891675000002</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56">
+        <v>851.32222488611853</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>2015</v>
+      </c>
+      <c r="C57" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2181,8 +4856,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
